--- a/Code/Results/Cases/Case_5_148/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_148/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.86453750768428</v>
+        <v>15.67081492403963</v>
       </c>
       <c r="C2">
-        <v>8.012428638788025</v>
+        <v>4.920529886062094</v>
       </c>
       <c r="D2">
-        <v>5.565627328683723</v>
+        <v>7.999223543718954</v>
       </c>
       <c r="E2">
-        <v>5.985555021603746</v>
+        <v>10.17169003887623</v>
       </c>
       <c r="F2">
-        <v>30.9675683063883</v>
+        <v>39.13785774348442</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>22.89354887202894</v>
+        <v>32.23090148857823</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.47600029522142</v>
+        <v>13.68377707550442</v>
       </c>
       <c r="L2">
-        <v>6.511235892316138</v>
+        <v>10.40803754457147</v>
       </c>
       <c r="M2">
-        <v>10.78847445672785</v>
+        <v>15.90298431543091</v>
       </c>
       <c r="N2">
-        <v>15.68027525447566</v>
+        <v>23.27016272231272</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.01514482884861</v>
+        <v>15.51084573806452</v>
       </c>
       <c r="C3">
-        <v>7.479667416169065</v>
+        <v>4.652768619461452</v>
       </c>
       <c r="D3">
-        <v>5.608235063332759</v>
+        <v>8.004217635475538</v>
       </c>
       <c r="E3">
-        <v>5.995780714675682</v>
+        <v>10.18728975260467</v>
       </c>
       <c r="F3">
-        <v>30.24146699052675</v>
+        <v>39.08171923743588</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>22.71252336159256</v>
+        <v>32.26242961528182</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.79386298092182</v>
+        <v>13.56592547323157</v>
       </c>
       <c r="L3">
-        <v>6.430968113490438</v>
+        <v>10.4177235225461</v>
       </c>
       <c r="M3">
-        <v>10.47526216615971</v>
+        <v>15.89026421742978</v>
       </c>
       <c r="N3">
-        <v>15.84655571480739</v>
+        <v>23.32136920468524</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.47582355196056</v>
+        <v>15.41588974984399</v>
       </c>
       <c r="C4">
-        <v>7.135751392433813</v>
+        <v>4.479307964505583</v>
       </c>
       <c r="D4">
-        <v>5.634401343611273</v>
+        <v>8.007336526810194</v>
       </c>
       <c r="E4">
-        <v>6.003727514689395</v>
+        <v>10.19768113381797</v>
       </c>
       <c r="F4">
-        <v>29.81060490174794</v>
+        <v>39.05552495011177</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>22.6153239510675</v>
+        <v>32.28709074116836</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.36248139034227</v>
+        <v>13.49652669539663</v>
       </c>
       <c r="L4">
-        <v>6.384463896890395</v>
+        <v>10.42513447020941</v>
       </c>
       <c r="M4">
-        <v>10.28447218297007</v>
+        <v>15.88529043399297</v>
       </c>
       <c r="N4">
-        <v>15.95291921181247</v>
+        <v>23.35470868525073</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.25178766584343</v>
+        <v>15.37805888224988</v>
       </c>
       <c r="C5">
-        <v>6.991344827559471</v>
+        <v>4.406370221192327</v>
       </c>
       <c r="D5">
-        <v>5.645076835464808</v>
+        <v>8.008620847805496</v>
       </c>
       <c r="E5">
-        <v>6.007378595919296</v>
+        <v>10.20212056106498</v>
       </c>
       <c r="F5">
-        <v>29.63887880556221</v>
+        <v>39.04693701677829</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>22.57912265279069</v>
+        <v>32.2984725440927</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.18372759905537</v>
+        <v>13.46902004518511</v>
       </c>
       <c r="L5">
-        <v>6.366212571472055</v>
+        <v>10.42852285962393</v>
       </c>
       <c r="M5">
-        <v>10.20720219790057</v>
+        <v>15.88397935991165</v>
       </c>
       <c r="N5">
-        <v>15.99732262619195</v>
+        <v>23.3687727117918</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.21433678462223</v>
+        <v>15.37183053686751</v>
       </c>
       <c r="C6">
-        <v>6.967108175514197</v>
+        <v>4.394123872828688</v>
       </c>
       <c r="D6">
-        <v>5.646850565337657</v>
+        <v>8.008834918770644</v>
       </c>
       <c r="E6">
-        <v>6.008009587705002</v>
+        <v>10.20287010893341</v>
       </c>
       <c r="F6">
-        <v>29.61059909233104</v>
+        <v>39.04563714665337</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>22.57331432689577</v>
+        <v>32.30044290319917</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.15387318381195</v>
+        <v>13.46450014566105</v>
       </c>
       <c r="L6">
-        <v>6.363224190020395</v>
+        <v>10.42910775522113</v>
       </c>
       <c r="M6">
-        <v>10.1944033469076</v>
+        <v>15.88380495520753</v>
       </c>
       <c r="N6">
-        <v>16.00475941163656</v>
+        <v>23.37113691341567</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.47281904498614</v>
+        <v>15.41537599349619</v>
       </c>
       <c r="C7">
-        <v>7.133821156234873</v>
+        <v>4.478333376939352</v>
       </c>
       <c r="D7">
-        <v>5.634545251936277</v>
+        <v>8.007353793388146</v>
       </c>
       <c r="E7">
-        <v>6.003775092217439</v>
+        <v>10.19774017550424</v>
       </c>
       <c r="F7">
-        <v>29.80827322496208</v>
+        <v>39.05540067610969</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>22.61482206189876</v>
+        <v>32.28723884804788</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.36008236397412</v>
+        <v>13.49615256043114</v>
       </c>
       <c r="L7">
-        <v>6.384214921155945</v>
+        <v>10.42517867535337</v>
       </c>
       <c r="M7">
-        <v>10.28342802626664</v>
+        <v>15.88526985115359</v>
       </c>
       <c r="N7">
-        <v>15.95351377845778</v>
+        <v>23.35489642189018</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.5754736410062</v>
+        <v>15.61500622883879</v>
       </c>
       <c r="C8">
-        <v>7.832196929769188</v>
+        <v>4.830098539612433</v>
       </c>
       <c r="D8">
-        <v>5.580324462328057</v>
+        <v>8.000934699060853</v>
       </c>
       <c r="E8">
-        <v>5.988730440773801</v>
+        <v>10.17690030058465</v>
       </c>
       <c r="F8">
-        <v>30.71415733183246</v>
+        <v>39.11678756644253</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>22.82817654329971</v>
+        <v>32.24067115670103</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.24350661245606</v>
+        <v>13.64254477777395</v>
       </c>
       <c r="L8">
-        <v>6.482982952765182</v>
+        <v>10.41107367539833</v>
       </c>
       <c r="M8">
-        <v>10.68021826990942</v>
+        <v>15.89801136932094</v>
       </c>
       <c r="N8">
-        <v>15.73671448450769</v>
+        <v>23.28742500113151</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.5895382373671</v>
+        <v>16.03041317888741</v>
       </c>
       <c r="C9">
-        <v>9.070242432539773</v>
+        <v>5.447225721338106</v>
       </c>
       <c r="D9">
-        <v>5.47348728719318</v>
+        <v>7.988756511359109</v>
       </c>
       <c r="E9">
-        <v>5.972785046033126</v>
+        <v>10.14246741738077</v>
       </c>
       <c r="F9">
-        <v>32.60538522579045</v>
+        <v>39.30251150559797</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>23.36160907453512</v>
+        <v>32.19147216718096</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.09876932820298</v>
+        <v>13.95178599548914</v>
       </c>
       <c r="L9">
-        <v>6.698683470187992</v>
+        <v>10.39501275510289</v>
       </c>
       <c r="M9">
-        <v>11.46653100800238</v>
+        <v>15.94537612566934</v>
       </c>
       <c r="N9">
-        <v>15.34614322111668</v>
+        <v>23.17015333071659</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.98140161626297</v>
+        <v>16.3474652671117</v>
       </c>
       <c r="C10">
-        <v>9.902605234663367</v>
+        <v>5.855514113362712</v>
       </c>
       <c r="D10">
-        <v>5.393850479859453</v>
+        <v>7.980048883276697</v>
       </c>
       <c r="E10">
-        <v>5.969804836425388</v>
+        <v>10.12106829534417</v>
       </c>
       <c r="F10">
-        <v>34.06000197413097</v>
+        <v>39.47828208499528</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>23.82951600272681</v>
+        <v>32.18105145850652</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.43364431147644</v>
+        <v>14.1906215500092</v>
       </c>
       <c r="L10">
-        <v>6.870508573012703</v>
+        <v>10.39026118279253</v>
       </c>
       <c r="M10">
-        <v>12.04461084955124</v>
+        <v>15.99362533723024</v>
       </c>
       <c r="N10">
-        <v>15.08146356908371</v>
+        <v>23.09312848792216</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.65537300344783</v>
+        <v>16.493676756344</v>
       </c>
       <c r="C11">
-        <v>10.26523963590289</v>
+        <v>6.031360694796543</v>
       </c>
       <c r="D11">
-        <v>5.357168916895779</v>
+        <v>7.976137439965781</v>
       </c>
       <c r="E11">
-        <v>5.970456578630674</v>
+        <v>10.11217483216902</v>
       </c>
       <c r="F11">
-        <v>34.73508807220419</v>
+        <v>39.56663885232372</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>24.06012352027813</v>
+        <v>32.18190047364136</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.01288128338045</v>
+        <v>14.30138320636045</v>
       </c>
       <c r="L11">
-        <v>6.951561425619992</v>
+        <v>10.38962382720502</v>
       </c>
       <c r="M11">
-        <v>12.30688407346708</v>
+        <v>16.01844655295969</v>
       </c>
       <c r="N11">
-        <v>14.96622706296578</v>
+        <v>23.06006447103063</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.90612578704036</v>
+        <v>16.54927801328267</v>
       </c>
       <c r="C12">
-        <v>10.400325349818</v>
+        <v>6.096522621389966</v>
       </c>
       <c r="D12">
-        <v>5.343194464785235</v>
+        <v>7.974663265944256</v>
       </c>
       <c r="E12">
-        <v>5.971001922943806</v>
+        <v>10.10892765713576</v>
       </c>
       <c r="F12">
-        <v>34.99260310930471</v>
+        <v>39.60128997984649</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>24.15010399121383</v>
+        <v>32.18302528627884</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.22829412464495</v>
+        <v>14.34359398046475</v>
       </c>
       <c r="L12">
-        <v>6.982668664653696</v>
+        <v>10.38960096941503</v>
       </c>
       <c r="M12">
-        <v>12.40604742435903</v>
+        <v>16.02825388437261</v>
       </c>
       <c r="N12">
-        <v>14.92336798879691</v>
+        <v>23.04782753356908</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.852318864934</v>
+        <v>16.53729368363017</v>
       </c>
       <c r="C13">
-        <v>10.37133054828637</v>
+        <v>6.08255238613914</v>
       </c>
       <c r="D13">
-        <v>5.346208161619951</v>
+        <v>7.974980446411682</v>
       </c>
       <c r="E13">
-        <v>5.97087103085314</v>
+        <v>10.10962163705703</v>
       </c>
       <c r="F13">
-        <v>34.93705979138514</v>
+        <v>39.59377446976396</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>24.13060538566895</v>
+        <v>32.18274732152715</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.18207439000969</v>
+        <v>14.33449180699852</v>
       </c>
       <c r="L13">
-        <v>6.975950743858037</v>
+        <v>10.38959618626666</v>
       </c>
       <c r="M13">
-        <v>12.38469839320851</v>
+        <v>16.02612363420488</v>
       </c>
       <c r="N13">
-        <v>14.93256320775648</v>
+        <v>23.05045036462083</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.6760915708749</v>
+        <v>16.49824670394947</v>
       </c>
       <c r="C14">
-        <v>10.27639762992697</v>
+        <v>6.036750237594812</v>
       </c>
       <c r="D14">
-        <v>5.356021025475993</v>
+        <v>7.976016019210021</v>
       </c>
       <c r="E14">
-        <v>5.970495402160724</v>
+        <v>10.11190527047494</v>
       </c>
       <c r="F14">
-        <v>34.75623661587675</v>
+        <v>39.56946581824784</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>24.06747247858037</v>
+        <v>32.18197691706253</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.03068165482775</v>
+        <v>14.30485075479252</v>
       </c>
       <c r="L14">
-        <v>6.954112336266993</v>
+        <v>10.38961757188096</v>
       </c>
       <c r="M14">
-        <v>12.31504565048068</v>
+        <v>16.01924525946925</v>
       </c>
       <c r="N14">
-        <v>14.96268519560451</v>
+        <v>23.0590520469995</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.5675683518151</v>
+        <v>16.47435828370187</v>
       </c>
       <c r="C15">
-        <v>10.21795935364654</v>
+        <v>6.008509080215854</v>
       </c>
       <c r="D15">
-        <v>5.362020174239368</v>
+        <v>7.976651245459429</v>
       </c>
       <c r="E15">
-        <v>5.970304502682784</v>
+        <v>10.11331975500774</v>
       </c>
       <c r="F15">
-        <v>34.64572027564282</v>
+        <v>39.55473086490601</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>24.02915048896484</v>
+        <v>32.18160961685638</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.93744015455184</v>
+        <v>14.28672854159029</v>
       </c>
       <c r="L15">
-        <v>6.940789619455126</v>
+        <v>10.38965910421002</v>
       </c>
       <c r="M15">
-        <v>12.27235990982163</v>
+        <v>16.01508504545805</v>
       </c>
       <c r="N15">
-        <v>14.98123831460907</v>
+        <v>23.06435776150711</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.93672637473456</v>
+        <v>16.33794553951174</v>
       </c>
       <c r="C16">
-        <v>9.878589560454195</v>
+        <v>5.843822652249844</v>
       </c>
       <c r="D16">
-        <v>5.396237012509228</v>
+        <v>7.980305493217377</v>
       </c>
       <c r="E16">
-        <v>5.969803467385502</v>
+        <v>10.12166639820321</v>
       </c>
       <c r="F16">
-        <v>34.0161479656831</v>
+        <v>39.47267548008035</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>23.81481112706626</v>
+        <v>32.18110841784939</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.39523430761581</v>
+        <v>14.18342246244556</v>
       </c>
       <c r="L16">
-        <v>6.865269587305987</v>
+        <v>10.39033344938797</v>
       </c>
       <c r="M16">
-        <v>12.02745180369664</v>
+        <v>15.99206059660211</v>
       </c>
       <c r="N16">
-        <v>15.08910142765727</v>
+        <v>23.09532901369095</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.57809340465029</v>
+        <v>16.25473227284342</v>
       </c>
       <c r="C17">
-        <v>9.666341487190943</v>
+        <v>5.740256028934073</v>
       </c>
       <c r="D17">
-        <v>5.417098863230146</v>
+        <v>7.982559883858029</v>
       </c>
       <c r="E17">
-        <v>5.970017071677258</v>
+        <v>10.12700196212954</v>
       </c>
       <c r="F17">
-        <v>33.6333096382394</v>
+        <v>39.42447769505466</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>23.68793954193562</v>
+        <v>32.18223234306664</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.05550196115041</v>
+        <v>14.12056329490604</v>
       </c>
       <c r="L17">
-        <v>6.819679250711956</v>
+        <v>10.39113705548441</v>
       </c>
       <c r="M17">
-        <v>11.87698822394816</v>
+        <v>15.97866812432373</v>
       </c>
       <c r="N17">
-        <v>15.15661892260523</v>
+        <v>23.11483448443402</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.37236481441071</v>
+        <v>16.20705989357798</v>
       </c>
       <c r="C18">
-        <v>9.542750573920344</v>
+        <v>5.679756932962062</v>
       </c>
       <c r="D18">
-        <v>5.429056492002893</v>
+        <v>7.983861236152974</v>
       </c>
       <c r="E18">
-        <v>5.970328253256548</v>
+        <v>10.13015002791398</v>
       </c>
       <c r="F18">
-        <v>33.41437162178443</v>
+        <v>39.39754706446431</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>23.61663132590671</v>
+        <v>32.18340495094271</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.85745494829498</v>
+        <v>14.08460955379606</v>
       </c>
       <c r="L18">
-        <v>6.793728814767132</v>
+        <v>10.39174277504116</v>
       </c>
       <c r="M18">
-        <v>11.79038234182779</v>
+        <v>15.97123581623391</v>
       </c>
       <c r="N18">
-        <v>15.19593715867317</v>
+        <v>23.12623942610166</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.30235907585972</v>
+        <v>16.19095298147172</v>
       </c>
       <c r="C19">
-        <v>9.500643303261951</v>
+        <v>5.659113409033678</v>
       </c>
       <c r="D19">
-        <v>5.433098541058193</v>
+        <v>7.98430266094023</v>
       </c>
       <c r="E19">
-        <v>5.970465668487161</v>
+        <v>10.13122952100779</v>
       </c>
       <c r="F19">
-        <v>33.34046129511586</v>
+        <v>39.38856518894121</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>23.59277049993399</v>
+        <v>32.18389235104092</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.78994306716519</v>
+        <v>14.07247189031437</v>
       </c>
       <c r="L19">
-        <v>6.784989196801909</v>
+        <v>10.39197252799209</v>
       </c>
       <c r="M19">
-        <v>11.76105003349747</v>
+        <v>15.96876600028644</v>
       </c>
       <c r="N19">
-        <v>15.20933177119339</v>
+        <v>23.13013288354616</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.61600282949645</v>
+        <v>16.26357120492075</v>
       </c>
       <c r="C20">
-        <v>9.689091623832224</v>
+        <v>5.751377205551946</v>
       </c>
       <c r="D20">
-        <v>5.414882513696631</v>
+        <v>7.982319416118644</v>
       </c>
       <c r="E20">
-        <v>5.969974773144251</v>
+        <v>10.12642578895514</v>
       </c>
       <c r="F20">
-        <v>33.67393340139949</v>
+        <v>39.42952662381807</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>23.70127219546135</v>
+        <v>32.18205824612645</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.09193980995466</v>
+        <v>14.12723420023634</v>
       </c>
       <c r="L20">
-        <v>6.824504288806449</v>
+        <v>10.39103666250139</v>
       </c>
       <c r="M20">
-        <v>11.89301229385386</v>
+        <v>15.98006579544212</v>
       </c>
       <c r="N20">
-        <v>15.14938124378857</v>
+        <v>23.11273885497573</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.72797428117201</v>
+        <v>16.5097097991256</v>
       </c>
       <c r="C21">
-        <v>10.30434185456495</v>
+        <v>6.05024221241837</v>
       </c>
       <c r="D21">
-        <v>5.353141184681286</v>
+        <v>7.975711657398916</v>
       </c>
       <c r="E21">
-        <v>5.970597548907488</v>
+        <v>10.11123124220103</v>
       </c>
       <c r="F21">
-        <v>34.80929816257646</v>
+        <v>39.57657362819641</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>24.08594328170836</v>
+        <v>32.18218140740156</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.0752552833644</v>
+        <v>14.31355007411592</v>
       </c>
       <c r="L21">
-        <v>6.960515565501553</v>
+        <v>10.38960536631324</v>
       </c>
       <c r="M21">
-        <v>12.33550889356441</v>
+        <v>16.02125457140702</v>
       </c>
       <c r="N21">
-        <v>14.9538161986685</v>
+        <v>23.05651782753882</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.44961805276296</v>
+        <v>16.67191692635529</v>
       </c>
       <c r="C22">
-        <v>10.69344543000535</v>
+        <v>6.237246793382304</v>
       </c>
       <c r="D22">
-        <v>5.312290439563717</v>
+        <v>7.971433868373263</v>
       </c>
       <c r="E22">
-        <v>5.972749803430659</v>
+        <v>10.10200342875458</v>
       </c>
       <c r="F22">
-        <v>35.56224594904764</v>
+        <v>39.679619020225</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>24.35286949301502</v>
+        <v>32.18694372270032</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.6950411137962</v>
+        <v>14.43686192659677</v>
       </c>
       <c r="L22">
-        <v>7.051821976798705</v>
+        <v>10.38994311624116</v>
       </c>
       <c r="M22">
-        <v>12.62379278454829</v>
+        <v>16.05054981002324</v>
       </c>
       <c r="N22">
-        <v>14.8305615211993</v>
+        <v>23.02142755720866</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.06681047507951</v>
+        <v>16.58523796788667</v>
       </c>
       <c r="C23">
-        <v>10.48693922586474</v>
+        <v>6.138201672313301</v>
       </c>
       <c r="D23">
-        <v>5.334145549133811</v>
+        <v>7.973713321792995</v>
       </c>
       <c r="E23">
-        <v>5.971437969253664</v>
+        <v>10.1068643094124</v>
       </c>
       <c r="F23">
-        <v>35.15939409859219</v>
+        <v>39.62399203833334</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>24.20895140791659</v>
+        <v>32.18397384482444</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.36630897934121</v>
+        <v>14.37091885319942</v>
       </c>
       <c r="L23">
-        <v>7.002869078152209</v>
+        <v>10.38964660076762</v>
       </c>
       <c r="M23">
-        <v>12.4700284806402</v>
+        <v>16.03469873142138</v>
       </c>
       <c r="N23">
-        <v>14.89591452167565</v>
+        <v>23.04000470438888</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.59887062254136</v>
+        <v>16.25957459640254</v>
       </c>
       <c r="C24">
-        <v>9.678811171821833</v>
+        <v>5.746352302898413</v>
       </c>
       <c r="D24">
-        <v>5.415884636464903</v>
+        <v>7.982428115122573</v>
       </c>
       <c r="E24">
-        <v>5.969993310294781</v>
+        <v>10.12668602583533</v>
       </c>
       <c r="F24">
-        <v>33.65556377831931</v>
+        <v>39.42724157559492</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>23.69523942727312</v>
+        <v>32.18213531537764</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.07547477011199</v>
+        <v>14.12421770542455</v>
       </c>
       <c r="L24">
-        <v>6.822322078963948</v>
+        <v>10.39108160245739</v>
       </c>
       <c r="M24">
-        <v>11.88576812650145</v>
+        <v>15.97943307563033</v>
       </c>
       <c r="N24">
-        <v>15.15265183883429</v>
+        <v>23.11368569405315</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.06136748223339</v>
+        <v>15.91575153478295</v>
       </c>
       <c r="C25">
-        <v>8.749111918993547</v>
+        <v>5.288155719959859</v>
       </c>
       <c r="D25">
-        <v>5.50252596477426</v>
+        <v>7.99200822099141</v>
       </c>
       <c r="E25">
-        <v>5.975600385361953</v>
+        <v>10.1510960593542</v>
       </c>
       <c r="F25">
-        <v>32.08199760959415</v>
+        <v>39.2453194720651</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>23.20437442201987</v>
+        <v>32.20026618319334</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.58175459242206</v>
+        <v>13.86594494381697</v>
       </c>
       <c r="L25">
-        <v>6.637980146420687</v>
+        <v>10.39811795454702</v>
       </c>
       <c r="M25">
-        <v>11.25344408002326</v>
+        <v>15.93018514185313</v>
       </c>
       <c r="N25">
-        <v>15.4479913900372</v>
+        <v>23.20027190510183</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_148/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_148/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.67081492403963</v>
+        <v>14.86453750768431</v>
       </c>
       <c r="C2">
-        <v>4.920529886062094</v>
+        <v>8.012428638787936</v>
       </c>
       <c r="D2">
-        <v>7.999223543718954</v>
+        <v>5.565627328683658</v>
       </c>
       <c r="E2">
-        <v>10.17169003887623</v>
+        <v>5.985555021603812</v>
       </c>
       <c r="F2">
-        <v>39.13785774348442</v>
+        <v>30.96756830638835</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>32.23090148857823</v>
+        <v>22.89354887202897</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.68377707550442</v>
+        <v>12.47600029522142</v>
       </c>
       <c r="L2">
-        <v>10.40803754457147</v>
+        <v>6.511235892316113</v>
       </c>
       <c r="M2">
-        <v>15.90298431543091</v>
+        <v>10.78847445672789</v>
       </c>
       <c r="N2">
-        <v>23.27016272231272</v>
+        <v>15.68027525447566</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.51084573806452</v>
+        <v>14.0151448288486</v>
       </c>
       <c r="C3">
-        <v>4.652768619461452</v>
+        <v>7.479667416169013</v>
       </c>
       <c r="D3">
-        <v>8.004217635475538</v>
+        <v>5.608235063332625</v>
       </c>
       <c r="E3">
-        <v>10.18728975260467</v>
+        <v>5.995780714675677</v>
       </c>
       <c r="F3">
-        <v>39.08171923743588</v>
+        <v>30.24146699052677</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>32.26242961528182</v>
+        <v>22.71252336159257</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.56592547323157</v>
+        <v>11.79386298092181</v>
       </c>
       <c r="L3">
-        <v>10.4177235225461</v>
+        <v>6.430968113490443</v>
       </c>
       <c r="M3">
-        <v>15.89026421742978</v>
+        <v>10.4752621661597</v>
       </c>
       <c r="N3">
-        <v>23.32136920468524</v>
+        <v>15.8465557148074</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.41588974984399</v>
+        <v>13.47582355196055</v>
       </c>
       <c r="C4">
-        <v>4.479307964505583</v>
+        <v>7.135751392433881</v>
       </c>
       <c r="D4">
-        <v>8.007336526810194</v>
+        <v>5.634401343611139</v>
       </c>
       <c r="E4">
-        <v>10.19768113381797</v>
+        <v>6.003727514689457</v>
       </c>
       <c r="F4">
-        <v>39.05552495011177</v>
+        <v>29.81060490174799</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>32.28709074116836</v>
+        <v>22.61532395106753</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.49652669539663</v>
+        <v>11.36248139034224</v>
       </c>
       <c r="L4">
-        <v>10.42513447020941</v>
+        <v>6.38446389689036</v>
       </c>
       <c r="M4">
-        <v>15.88529043399297</v>
+        <v>10.28447218297007</v>
       </c>
       <c r="N4">
-        <v>23.35470868525073</v>
+        <v>15.95291921181251</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.37805888224988</v>
+        <v>13.25178766584341</v>
       </c>
       <c r="C5">
-        <v>4.406370221192327</v>
+        <v>6.991344827559585</v>
       </c>
       <c r="D5">
-        <v>8.008620847805496</v>
+        <v>5.645076835464943</v>
       </c>
       <c r="E5">
-        <v>10.20212056106498</v>
+        <v>6.007378595919238</v>
       </c>
       <c r="F5">
-        <v>39.04693701677829</v>
+        <v>29.63887880556201</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>32.2984725440927</v>
+        <v>22.57912265279066</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.46902004518511</v>
+        <v>11.18372759905533</v>
       </c>
       <c r="L5">
-        <v>10.42852285962393</v>
+        <v>6.366212571471917</v>
       </c>
       <c r="M5">
-        <v>15.88397935991165</v>
+        <v>10.20720219790051</v>
       </c>
       <c r="N5">
-        <v>23.3687727117918</v>
+        <v>15.99732262619194</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.37183053686751</v>
+        <v>13.21433678462227</v>
       </c>
       <c r="C6">
-        <v>4.394123872828688</v>
+        <v>6.967108175514233</v>
       </c>
       <c r="D6">
-        <v>8.008834918770644</v>
+        <v>5.646850565337791</v>
       </c>
       <c r="E6">
-        <v>10.20287010893341</v>
+        <v>6.008009587705003</v>
       </c>
       <c r="F6">
-        <v>39.04563714665337</v>
+        <v>29.6105990923311</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>32.30044290319917</v>
+        <v>22.57331432689583</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.46450014566105</v>
+        <v>11.15387318381196</v>
       </c>
       <c r="L6">
-        <v>10.42910775522113</v>
+        <v>6.363224190020476</v>
       </c>
       <c r="M6">
-        <v>15.88380495520753</v>
+        <v>10.19440334690765</v>
       </c>
       <c r="N6">
-        <v>23.37113691341567</v>
+        <v>16.0047594116366</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.41537599349619</v>
+        <v>13.47281904498616</v>
       </c>
       <c r="C7">
-        <v>4.478333376939352</v>
+        <v>7.133821156234911</v>
       </c>
       <c r="D7">
-        <v>8.007353793388146</v>
+        <v>5.634545251936143</v>
       </c>
       <c r="E7">
-        <v>10.19774017550424</v>
+        <v>6.003775092217504</v>
       </c>
       <c r="F7">
-        <v>39.05540067610969</v>
+        <v>29.80827322496212</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>32.28723884804788</v>
+        <v>22.61482206189881</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.49615256043114</v>
+        <v>11.36008236397412</v>
       </c>
       <c r="L7">
-        <v>10.42517867535337</v>
+        <v>6.384214921155951</v>
       </c>
       <c r="M7">
-        <v>15.88526985115359</v>
+        <v>10.28342802626667</v>
       </c>
       <c r="N7">
-        <v>23.35489642189018</v>
+        <v>15.95351377845775</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.61500622883879</v>
+        <v>14.57547364100623</v>
       </c>
       <c r="C8">
-        <v>4.830098539612433</v>
+        <v>7.832196929769085</v>
       </c>
       <c r="D8">
-        <v>8.000934699060853</v>
+        <v>5.580324462328258</v>
       </c>
       <c r="E8">
-        <v>10.17690030058465</v>
+        <v>5.988730440773741</v>
       </c>
       <c r="F8">
-        <v>39.11678756644253</v>
+        <v>30.7141573318326</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>32.24067115670103</v>
+        <v>22.82817654329987</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.64254477777395</v>
+        <v>12.24350661245609</v>
       </c>
       <c r="L8">
-        <v>10.41107367539833</v>
+        <v>6.482982952765201</v>
       </c>
       <c r="M8">
-        <v>15.89801136932094</v>
+        <v>10.68021826990945</v>
       </c>
       <c r="N8">
-        <v>23.28742500113151</v>
+        <v>15.73671448450778</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.03041317888741</v>
+        <v>16.5895382373671</v>
       </c>
       <c r="C9">
-        <v>5.447225721338106</v>
+        <v>9.07024243253978</v>
       </c>
       <c r="D9">
-        <v>7.988756511359109</v>
+        <v>5.473487287193111</v>
       </c>
       <c r="E9">
-        <v>10.14246741738077</v>
+        <v>5.972785046033189</v>
       </c>
       <c r="F9">
-        <v>39.30251150559797</v>
+        <v>32.60538522579034</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>32.19147216718096</v>
+        <v>23.361609074535</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.95178599548914</v>
+        <v>14.09876932820305</v>
       </c>
       <c r="L9">
-        <v>10.39501275510289</v>
+        <v>6.698683470188017</v>
       </c>
       <c r="M9">
-        <v>15.94537612566934</v>
+        <v>11.46653100800235</v>
       </c>
       <c r="N9">
-        <v>23.17015333071659</v>
+        <v>15.34614322111659</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.3474652671117</v>
+        <v>17.981401616263</v>
       </c>
       <c r="C10">
-        <v>5.855514113362712</v>
+        <v>9.902605234663127</v>
       </c>
       <c r="D10">
-        <v>7.980048883276697</v>
+        <v>5.393850479859586</v>
       </c>
       <c r="E10">
-        <v>10.12106829534417</v>
+        <v>5.96980483642533</v>
       </c>
       <c r="F10">
-        <v>39.47828208499528</v>
+        <v>34.06000197413088</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>32.18105145850652</v>
+        <v>23.82951600272674</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.1906215500092</v>
+        <v>15.43364431147644</v>
       </c>
       <c r="L10">
-        <v>10.39026118279253</v>
+        <v>6.870508573012693</v>
       </c>
       <c r="M10">
-        <v>15.99362533723024</v>
+        <v>12.04461084955121</v>
       </c>
       <c r="N10">
-        <v>23.09312848792216</v>
+        <v>15.0814635690837</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.493676756344</v>
+        <v>18.65537300344791</v>
       </c>
       <c r="C11">
-        <v>6.031360694796543</v>
+        <v>10.26523963590299</v>
       </c>
       <c r="D11">
-        <v>7.976137439965781</v>
+        <v>5.357168916895643</v>
       </c>
       <c r="E11">
-        <v>10.11217483216902</v>
+        <v>5.970456578630799</v>
       </c>
       <c r="F11">
-        <v>39.56663885232372</v>
+        <v>34.7350880722041</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>32.18190047364136</v>
+        <v>24.060123520278</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.30138320636045</v>
+        <v>16.01288128338057</v>
       </c>
       <c r="L11">
-        <v>10.38962382720502</v>
+        <v>6.951561425620004</v>
       </c>
       <c r="M11">
-        <v>16.01844655295969</v>
+        <v>12.30688407346705</v>
       </c>
       <c r="N11">
-        <v>23.06006447103063</v>
+        <v>14.96622706296568</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.54927801328267</v>
+        <v>18.90612578704044</v>
       </c>
       <c r="C12">
-        <v>6.096522621389966</v>
+        <v>10.40032534981789</v>
       </c>
       <c r="D12">
-        <v>7.974663265944256</v>
+        <v>5.343194464785167</v>
       </c>
       <c r="E12">
-        <v>10.10892765713576</v>
+        <v>5.971001922943932</v>
       </c>
       <c r="F12">
-        <v>39.60128997984649</v>
+        <v>34.99260310930461</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>32.18302528627884</v>
+        <v>24.15010399121372</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.34359398046475</v>
+        <v>16.22829412464499</v>
       </c>
       <c r="L12">
-        <v>10.38960096941503</v>
+        <v>6.982668664653728</v>
       </c>
       <c r="M12">
-        <v>16.02825388437261</v>
+        <v>12.40604742435902</v>
       </c>
       <c r="N12">
-        <v>23.04782753356908</v>
+        <v>14.92336798879682</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.53729368363017</v>
+        <v>18.852318864934</v>
       </c>
       <c r="C13">
-        <v>6.08255238613914</v>
+        <v>10.37133054828649</v>
       </c>
       <c r="D13">
-        <v>7.974980446411682</v>
+        <v>5.346208161620016</v>
       </c>
       <c r="E13">
-        <v>10.10962163705703</v>
+        <v>5.970871030853149</v>
       </c>
       <c r="F13">
-        <v>39.59377446976396</v>
+        <v>34.9370597913851</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>32.18274732152715</v>
+        <v>24.13060538566901</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.33449180699852</v>
+        <v>16.1820743900097</v>
       </c>
       <c r="L13">
-        <v>10.38959618626666</v>
+        <v>6.975950743857992</v>
       </c>
       <c r="M13">
-        <v>16.02612363420488</v>
+        <v>12.38469839320852</v>
       </c>
       <c r="N13">
-        <v>23.05045036462083</v>
+        <v>14.93256320775651</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.49824670394947</v>
+        <v>18.67609157087488</v>
       </c>
       <c r="C14">
-        <v>6.036750237594812</v>
+        <v>10.27639762992683</v>
       </c>
       <c r="D14">
-        <v>7.976016019210021</v>
+        <v>5.356021025476128</v>
       </c>
       <c r="E14">
-        <v>10.11190527047494</v>
+        <v>5.97049540216079</v>
       </c>
       <c r="F14">
-        <v>39.56946581824784</v>
+        <v>34.75623661587677</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>32.18197691706253</v>
+        <v>24.06747247858041</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.30485075479252</v>
+        <v>16.03068165482772</v>
       </c>
       <c r="L14">
-        <v>10.38961757188096</v>
+        <v>6.954112336267042</v>
       </c>
       <c r="M14">
-        <v>16.01924525946925</v>
+        <v>12.31504565048071</v>
       </c>
       <c r="N14">
-        <v>23.0590520469995</v>
+        <v>14.96268519560451</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.47435828370187</v>
+        <v>18.56756835181511</v>
       </c>
       <c r="C15">
-        <v>6.008509080215854</v>
+        <v>10.21795935364653</v>
       </c>
       <c r="D15">
-        <v>7.976651245459429</v>
+        <v>5.362020174239572</v>
       </c>
       <c r="E15">
-        <v>10.11331975500774</v>
+        <v>5.970304502682841</v>
       </c>
       <c r="F15">
-        <v>39.55473086490601</v>
+        <v>34.64572027564277</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>32.18160961685638</v>
+        <v>24.02915048896487</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.28672854159029</v>
+        <v>15.93744015455187</v>
       </c>
       <c r="L15">
-        <v>10.38965910421002</v>
+        <v>6.940789619455119</v>
       </c>
       <c r="M15">
-        <v>16.01508504545805</v>
+        <v>12.27235990982161</v>
       </c>
       <c r="N15">
-        <v>23.06435776150711</v>
+        <v>14.98123831460914</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.33794553951174</v>
+        <v>17.93672637473457</v>
       </c>
       <c r="C16">
-        <v>5.843822652249844</v>
+        <v>9.878589560454177</v>
       </c>
       <c r="D16">
-        <v>7.980305493217377</v>
+        <v>5.396237012509227</v>
       </c>
       <c r="E16">
-        <v>10.12166639820321</v>
+        <v>5.969803467385506</v>
       </c>
       <c r="F16">
-        <v>39.47267548008035</v>
+        <v>34.01614796568313</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>32.18110841784939</v>
+        <v>23.81481112706629</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.18342246244556</v>
+        <v>15.39523430761581</v>
       </c>
       <c r="L16">
-        <v>10.39033344938797</v>
+        <v>6.865269587305993</v>
       </c>
       <c r="M16">
-        <v>15.99206059660211</v>
+        <v>12.02745180369664</v>
       </c>
       <c r="N16">
-        <v>23.09532901369095</v>
+        <v>15.0891014276573</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.25473227284342</v>
+        <v>17.5780934046503</v>
       </c>
       <c r="C17">
-        <v>5.740256028934073</v>
+        <v>9.666341487190873</v>
       </c>
       <c r="D17">
-        <v>7.982559883858029</v>
+        <v>5.41709886323008</v>
       </c>
       <c r="E17">
-        <v>10.12700196212954</v>
+        <v>5.970017071677085</v>
       </c>
       <c r="F17">
-        <v>39.42447769505466</v>
+        <v>33.63330963823964</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>32.18223234306664</v>
+        <v>23.68793954193579</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.12056329490604</v>
+        <v>15.05550196115034</v>
       </c>
       <c r="L17">
-        <v>10.39113705548441</v>
+        <v>6.819679250711895</v>
       </c>
       <c r="M17">
-        <v>15.97866812432373</v>
+        <v>11.87698822394819</v>
       </c>
       <c r="N17">
-        <v>23.11483448443402</v>
+        <v>15.15661892260536</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.20705989357798</v>
+        <v>17.37236481441073</v>
       </c>
       <c r="C18">
-        <v>5.679756932962062</v>
+        <v>9.542750573920278</v>
       </c>
       <c r="D18">
-        <v>7.983861236152974</v>
+        <v>5.429056492002961</v>
       </c>
       <c r="E18">
-        <v>10.13015002791398</v>
+        <v>5.970328253256485</v>
       </c>
       <c r="F18">
-        <v>39.39754706446431</v>
+        <v>33.4143716217844</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>32.18340495094271</v>
+        <v>23.61663132590667</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.08460955379606</v>
+        <v>14.85745494829498</v>
       </c>
       <c r="L18">
-        <v>10.39174277504116</v>
+        <v>6.793728814767111</v>
       </c>
       <c r="M18">
-        <v>15.97123581623391</v>
+        <v>11.79038234182778</v>
       </c>
       <c r="N18">
-        <v>23.12623942610166</v>
+        <v>15.19593715867308</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.19095298147172</v>
+        <v>17.30235907585974</v>
       </c>
       <c r="C19">
-        <v>5.659113409033678</v>
+        <v>9.500643303262171</v>
       </c>
       <c r="D19">
-        <v>7.98430266094023</v>
+        <v>5.433098541058261</v>
       </c>
       <c r="E19">
-        <v>10.13122952100779</v>
+        <v>5.970465668487159</v>
       </c>
       <c r="F19">
-        <v>39.38856518894121</v>
+        <v>33.34046129511594</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>32.18389235104092</v>
+        <v>23.59277049993413</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.07247189031437</v>
+        <v>14.78994306716519</v>
       </c>
       <c r="L19">
-        <v>10.39197252799209</v>
+        <v>6.784989196801849</v>
       </c>
       <c r="M19">
-        <v>15.96876600028644</v>
+        <v>11.76105003349747</v>
       </c>
       <c r="N19">
-        <v>23.13013288354616</v>
+        <v>15.20933177119344</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.26357120492075</v>
+        <v>17.61600282949647</v>
       </c>
       <c r="C20">
-        <v>5.751377205551946</v>
+        <v>9.689091623832505</v>
       </c>
       <c r="D20">
-        <v>7.982319416118644</v>
+        <v>5.414882513696563</v>
       </c>
       <c r="E20">
-        <v>10.12642578895514</v>
+        <v>5.96997477314455</v>
       </c>
       <c r="F20">
-        <v>39.42952662381807</v>
+        <v>33.6739334013994</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>32.18205824612645</v>
+        <v>23.70127219546121</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.12723420023634</v>
+        <v>15.09193980995479</v>
       </c>
       <c r="L20">
-        <v>10.39103666250139</v>
+        <v>6.824504288806543</v>
       </c>
       <c r="M20">
-        <v>15.98006579544212</v>
+        <v>11.89301229385388</v>
       </c>
       <c r="N20">
-        <v>23.11273885497573</v>
+        <v>15.14938124378846</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.5097097991256</v>
+        <v>18.727974281172</v>
       </c>
       <c r="C21">
-        <v>6.05024221241837</v>
+        <v>10.30434185456488</v>
       </c>
       <c r="D21">
-        <v>7.975711657398916</v>
+        <v>5.353141184681218</v>
       </c>
       <c r="E21">
-        <v>10.11123124220103</v>
+        <v>5.970597548907495</v>
       </c>
       <c r="F21">
-        <v>39.57657362819641</v>
+        <v>34.80929816257652</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>32.18218140740156</v>
+        <v>24.08594328170837</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.31355007411592</v>
+        <v>16.07525528336436</v>
       </c>
       <c r="L21">
-        <v>10.38960536631324</v>
+        <v>6.960515565501596</v>
       </c>
       <c r="M21">
-        <v>16.02125457140702</v>
+        <v>12.33550889356444</v>
       </c>
       <c r="N21">
-        <v>23.05651782753882</v>
+        <v>14.95381619866847</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.67191692635529</v>
+        <v>19.44961805276292</v>
       </c>
       <c r="C22">
-        <v>6.237246793382304</v>
+        <v>10.6934454300054</v>
       </c>
       <c r="D22">
-        <v>7.971433868373263</v>
+        <v>5.312290439563578</v>
       </c>
       <c r="E22">
-        <v>10.10200342875458</v>
+        <v>5.972749803430945</v>
       </c>
       <c r="F22">
-        <v>39.679619020225</v>
+        <v>35.56224594904766</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>32.18694372270032</v>
+        <v>24.35286949301507</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.43686192659677</v>
+        <v>16.69504111379618</v>
       </c>
       <c r="L22">
-        <v>10.38994311624116</v>
+        <v>7.051821976798777</v>
       </c>
       <c r="M22">
-        <v>16.05054981002324</v>
+        <v>12.62379278454833</v>
       </c>
       <c r="N22">
-        <v>23.02142755720866</v>
+        <v>14.83056152119934</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.58523796788667</v>
+        <v>19.06681047507952</v>
       </c>
       <c r="C23">
-        <v>6.138201672313301</v>
+        <v>10.48693922586486</v>
       </c>
       <c r="D23">
-        <v>7.973713321792995</v>
+        <v>5.334145549133677</v>
       </c>
       <c r="E23">
-        <v>10.1068643094124</v>
+        <v>5.97143796925373</v>
       </c>
       <c r="F23">
-        <v>39.62399203833334</v>
+        <v>35.15939409859222</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>32.18397384482444</v>
+        <v>24.20895140791661</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.37091885319942</v>
+        <v>16.36630897934124</v>
       </c>
       <c r="L23">
-        <v>10.38964660076762</v>
+        <v>7.002869078152213</v>
       </c>
       <c r="M23">
-        <v>16.03469873142138</v>
+        <v>12.4700284806402</v>
       </c>
       <c r="N23">
-        <v>23.04000470438888</v>
+        <v>14.89591452167565</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.25957459640254</v>
+        <v>17.59887062254139</v>
       </c>
       <c r="C24">
-        <v>5.746352302898413</v>
+        <v>9.678811171822032</v>
       </c>
       <c r="D24">
-        <v>7.982428115122573</v>
+        <v>5.4158846364651</v>
       </c>
       <c r="E24">
-        <v>10.12668602583533</v>
+        <v>5.969993310294776</v>
       </c>
       <c r="F24">
-        <v>39.42724157559492</v>
+        <v>33.65556377831934</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>32.18213531537764</v>
+        <v>23.69523942727321</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.12421770542455</v>
+        <v>15.07547477011199</v>
       </c>
       <c r="L24">
-        <v>10.39108160245739</v>
+        <v>6.822322078963923</v>
       </c>
       <c r="M24">
-        <v>15.97943307563033</v>
+        <v>11.88576812650146</v>
       </c>
       <c r="N24">
-        <v>23.11368569405315</v>
+        <v>15.15265183883433</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.91575153478295</v>
+        <v>16.06136748223338</v>
       </c>
       <c r="C25">
-        <v>5.288155719959859</v>
+        <v>8.749111918993687</v>
       </c>
       <c r="D25">
-        <v>7.99200822099141</v>
+        <v>5.502525964774061</v>
       </c>
       <c r="E25">
-        <v>10.1510960593542</v>
+        <v>5.975600385362013</v>
       </c>
       <c r="F25">
-        <v>39.2453194720651</v>
+        <v>32.08199760959389</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>32.20026618319334</v>
+        <v>23.20437442201957</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.86594494381697</v>
+        <v>13.58175459242214</v>
       </c>
       <c r="L25">
-        <v>10.39811795454702</v>
+        <v>6.63798014642062</v>
       </c>
       <c r="M25">
-        <v>15.93018514185313</v>
+        <v>11.25344408002321</v>
       </c>
       <c r="N25">
-        <v>23.20027190510183</v>
+        <v>15.44799139003696</v>
       </c>
       <c r="O25">
         <v>0</v>
